--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam2-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam2-Itgb7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Adam2</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.375566</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6155719715657366</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7060466830097307</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.138751333333333</v>
+        <v>0.887307</v>
       </c>
       <c r="N2">
-        <v>3.416253999999999</v>
+        <v>2.661921</v>
       </c>
       <c r="O2">
-        <v>0.03958856402477573</v>
+        <v>0.03991909470044044</v>
       </c>
       <c r="P2">
-        <v>0.04010995698151244</v>
+        <v>0.04024932703229714</v>
       </c>
       <c r="Q2">
-        <v>0.1425587610848889</v>
+        <v>0.111080780254</v>
       </c>
       <c r="R2">
-        <v>1.283028849764</v>
+        <v>0.9997270222860001</v>
       </c>
       <c r="S2">
-        <v>0.03958856402477573</v>
+        <v>0.02457307582786947</v>
       </c>
       <c r="T2">
-        <v>0.04010995698151244</v>
+        <v>0.02841790384452728</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.375566</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6155719715657366</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7060466830097307</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,16 +620,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9845453333333335</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N3">
         <v>2.953636</v>
       </c>
       <c r="O3">
-        <v>0.03422760950792374</v>
+        <v>0.04429375447078636</v>
       </c>
       <c r="P3">
-        <v>0.03467839712710077</v>
+        <v>0.04466017635322986</v>
       </c>
       <c r="Q3">
         <v>0.1232539175528889</v>
@@ -638,10 +638,10 @@
         <v>1.109285257976</v>
       </c>
       <c r="S3">
-        <v>0.03422760950792374</v>
+        <v>0.02726599376763062</v>
       </c>
       <c r="T3">
-        <v>0.03467839712710077</v>
+        <v>0.03153216937682756</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.375566</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6155719715657366</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7060466830097307</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.038733</v>
+        <v>15.43767133333333</v>
       </c>
       <c r="N4">
-        <v>33.116199</v>
+        <v>46.313014</v>
       </c>
       <c r="O4">
-        <v>0.3837603305751604</v>
+        <v>0.6945260928963797</v>
       </c>
       <c r="P4">
-        <v>0.3888145662708937</v>
+        <v>0.7002715882016618</v>
       </c>
       <c r="Q4">
-        <v>1.381924265959333</v>
+        <v>1.932621490658222</v>
       </c>
       <c r="R4">
-        <v>12.437318393634</v>
+        <v>17.393593415924</v>
       </c>
       <c r="S4">
-        <v>0.3837603305751604</v>
+        <v>0.4275307963080724</v>
       </c>
       <c r="T4">
-        <v>0.3888145662708937</v>
+        <v>0.4944244320557394</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.375566</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6155719715657366</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.7060466830097307</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.121743</v>
+        <v>0.547111</v>
       </c>
       <c r="N5">
-        <v>2.243486</v>
+        <v>1.094222</v>
       </c>
       <c r="O5">
-        <v>0.03899727119954546</v>
+        <v>0.02461400149063703</v>
       </c>
       <c r="P5">
-        <v>0.02634058443799127</v>
+        <v>0.01654508121162658</v>
       </c>
       <c r="Q5">
-        <v>0.1404295105126667</v>
+        <v>0.06849209660866667</v>
       </c>
       <c r="R5">
-        <v>0.842577063076</v>
+        <v>0.410952579652</v>
       </c>
       <c r="S5">
-        <v>0.03899727119954546</v>
+        <v>0.01515168942571342</v>
       </c>
       <c r="T5">
-        <v>0.02634058443799127</v>
+        <v>0.01168159970959556</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>0.375566</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.6155719715657366</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.7060466830097307</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,338 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.480881</v>
+        <v>4.370998666666666</v>
       </c>
       <c r="N6">
-        <v>43.442643</v>
+        <v>13.112996</v>
       </c>
       <c r="O6">
-        <v>0.5034262246925947</v>
+        <v>0.1966470564417564</v>
       </c>
       <c r="P6">
-        <v>0.510056495182502</v>
+        <v>0.1982738272011845</v>
       </c>
       <c r="Q6">
-        <v>1.812842184548667</v>
+        <v>0.5471994950817777</v>
       </c>
       <c r="R6">
-        <v>16.315579660938</v>
+        <v>4.924795455736</v>
       </c>
       <c r="S6">
-        <v>0.5034262246925947</v>
+        <v>0.1210504162364507</v>
       </c>
       <c r="T6">
-        <v>0.510056495182502</v>
+        <v>0.1399905780230408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.078181</v>
+      </c>
+      <c r="H7">
+        <v>0.156362</v>
+      </c>
+      <c r="I7">
+        <v>0.3844280284342634</v>
+      </c>
+      <c r="J7">
+        <v>0.2939533169902694</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.887307</v>
+      </c>
+      <c r="N7">
+        <v>2.661921</v>
+      </c>
+      <c r="O7">
+        <v>0.03991909470044044</v>
+      </c>
+      <c r="P7">
+        <v>0.04024932703229714</v>
+      </c>
+      <c r="Q7">
+        <v>0.06937054856699999</v>
+      </c>
+      <c r="R7">
+        <v>0.416223291402</v>
+      </c>
+      <c r="S7">
+        <v>0.01534601887257097</v>
+      </c>
+      <c r="T7">
+        <v>0.01183142318776986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.078181</v>
+      </c>
+      <c r="H8">
+        <v>0.156362</v>
+      </c>
+      <c r="I8">
+        <v>0.3844280284342634</v>
+      </c>
+      <c r="J8">
+        <v>0.2939533169902694</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.9845453333333333</v>
+      </c>
+      <c r="N8">
+        <v>2.953636</v>
+      </c>
+      <c r="O8">
+        <v>0.04429375447078636</v>
+      </c>
+      <c r="P8">
+        <v>0.04466017635322986</v>
+      </c>
+      <c r="Q8">
+        <v>0.07697273870533333</v>
+      </c>
+      <c r="R8">
+        <v>0.461836432232</v>
+      </c>
+      <c r="S8">
+        <v>0.01702776070315574</v>
+      </c>
+      <c r="T8">
+        <v>0.01312800697640231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.078181</v>
+      </c>
+      <c r="H9">
+        <v>0.156362</v>
+      </c>
+      <c r="I9">
+        <v>0.3844280284342634</v>
+      </c>
+      <c r="J9">
+        <v>0.2939533169902694</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>15.43767133333333</v>
+      </c>
+      <c r="N9">
+        <v>46.313014</v>
+      </c>
+      <c r="O9">
+        <v>0.6945260928963797</v>
+      </c>
+      <c r="P9">
+        <v>0.7002715882016618</v>
+      </c>
+      <c r="Q9">
+        <v>1.206932582511333</v>
+      </c>
+      <c r="R9">
+        <v>7.241595495067999</v>
+      </c>
+      <c r="S9">
+        <v>0.2669952965883073</v>
+      </c>
+      <c r="T9">
+        <v>0.2058471561459225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.078181</v>
+      </c>
+      <c r="H10">
+        <v>0.156362</v>
+      </c>
+      <c r="I10">
+        <v>0.3844280284342634</v>
+      </c>
+      <c r="J10">
+        <v>0.2939533169902694</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.547111</v>
+      </c>
+      <c r="N10">
+        <v>1.094222</v>
+      </c>
+      <c r="O10">
+        <v>0.02461400149063703</v>
+      </c>
+      <c r="P10">
+        <v>0.01654508121162658</v>
+      </c>
+      <c r="Q10">
+        <v>0.042773685091</v>
+      </c>
+      <c r="R10">
+        <v>0.171094740364</v>
+      </c>
+      <c r="S10">
+        <v>0.009462312064923614</v>
+      </c>
+      <c r="T10">
+        <v>0.004863481502031019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.078181</v>
+      </c>
+      <c r="H11">
+        <v>0.156362</v>
+      </c>
+      <c r="I11">
+        <v>0.3844280284342634</v>
+      </c>
+      <c r="J11">
+        <v>0.2939533169902694</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.370998666666666</v>
+      </c>
+      <c r="N11">
+        <v>13.112996</v>
+      </c>
+      <c r="O11">
+        <v>0.1966470564417564</v>
+      </c>
+      <c r="P11">
+        <v>0.1982738272011845</v>
+      </c>
+      <c r="Q11">
+        <v>0.3417290467586666</v>
+      </c>
+      <c r="R11">
+        <v>2.050374280552</v>
+      </c>
+      <c r="S11">
+        <v>0.07559664020530572</v>
+      </c>
+      <c r="T11">
+        <v>0.05828324917814368</v>
       </c>
     </row>
   </sheetData>
